--- a/Surface_input.xlsx
+++ b/Surface_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhr93\Dropbox\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhr93\Dropbox\PC\Desktop\PSO-BP_sensitivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E56DB-BDF7-497B-9641-905323E68131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489DFC4-7F69-4A38-8797-A590664D58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22755" yWindow="660" windowWidth="20265" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20655" yWindow="930" windowWidth="22740" windowHeight="20070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,12 +76,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,24 +92,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,7 +392,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,19 +1418,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>3.4666666666666665E-2</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="2">
         <v>0.52</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="2">
         <v>-1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="2">
         <v>26.8</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="2">
         <v>7.8333333333333338E-2</v>
       </c>
     </row>
@@ -1495,19 +1486,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="2">
         <v>1.8380062305295947E-2</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="2">
         <v>3.956</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="2">
         <v>18</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="2">
         <v>6.9585253456221199E-2</v>
       </c>
     </row>
@@ -1631,19 +1622,19 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>1.8380062305295947E-2</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="2">
         <v>3.9209999999999998</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="2">
         <v>17.7</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="2">
         <v>6.6210045662100453E-2</v>
       </c>
     </row>
@@ -1827,7 +1818,7 @@
       <c r="C84" s="3">
         <v>0.01</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>2.9</v>
       </c>
       <c r="E84" s="3">
